--- a/docs/PTA2_DDC_80/PTA2_DDC_80_19.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_19.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731779108.6792483</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731779112.1155462</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779108.6792483.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779112.1155462.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>273.25</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>271.8</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1.449999999999989</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731779114.08592</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731779116.7708704</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779114.08592.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779116.7708704.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>270.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>270.21</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2900000000000205</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731779117.3223844</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731779118.628757</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779117.3223844.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731779118.628757.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>271</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>270.09</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.910000000000025</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731779121.8060884</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731779124.7433577</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779121.8060884.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779124.7433577.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>273.25</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>271.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.449999999999989</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731779126.344306</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731779128.5550795</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779126.344306.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779128.5550795.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>270.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>270.21</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.2900000000000205</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731779129.026606</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731779130.1620483</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779129.026606.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779130.1620483.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>271</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>270.09</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.910000000000025</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731779133.4476514</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731779137.0646536</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779133.4476514.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779137.0646536.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>273.77</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>271.87</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-1.899999999999977</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.6899999999999999</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731779138.958736</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731779139.5264692</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779138.958736.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779139.5264692.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>270.7</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>271.26</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731779140.0558178</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731779141.6960733</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779140.0558178.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779141.6960733.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>270.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>270.37</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1700000000000159</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731779142.2782338</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731779144.2040837</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779142.2782338.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731779144.2040837.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>271.51</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>270.36</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.149999999999977</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731779145.995511</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731779146.9987543</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779145.995511.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779146.9987543.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>127.62</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>126.81</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.8100000000000023</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731779147.4811637</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731779150.1820517</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779147.4811637.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779150.1820517.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>126.45</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>126.36</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.09000000000000341</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731779153.653526</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731779154.002589</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779153.653526.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779154.002589.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>125.58</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>126</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731779155.9690795</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731779156.0149834</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779155.9690795.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731779156.0149834.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>125.49</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>125.69</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1267,95 +1367,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731779156.7702584</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731779156.7702584.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731779156.7702584.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>126.08</v>
       </c>
-      <c r="J17" t="n">
-        <v>126.08</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>126.88</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.7999999999999972</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731779160.1936178</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731779161.531371</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779160.1936178.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779161.531371.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6269.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6257</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>12.5</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731779162.2319837</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731779165.9673674</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779162.2319837.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779165.9673674.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6236</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6207.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-28.5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731779167.125373</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731779167.748308</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779167.125373.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779167.748308.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6209.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6186.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>23</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731779168.4799893</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731779170.6430755</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779168.4799893.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779170.6430755.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6182.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6195</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>12.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731779170.6819706</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731779170.9824007</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779170.6819706.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779170.9824007.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6200</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6187.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>12.5</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731779171.18164</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731779171.901955</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779171.18164.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731779171.901955.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6206.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6198</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>8.5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1623,95 +1765,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731779173.533795</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731779173.533795.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731779173.533795.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6182</v>
       </c>
-      <c r="J24" t="n">
-        <v>6182</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>6187.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731779174.7563534</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731779176.3969486</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779174.7563534.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779176.3969486.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>492.3</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>491.4</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.9000000000000341</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731779177.3825152</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731779180.656785</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779177.3825152.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779180.656785.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>490.25</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>487.8</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-2.449999999999989</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731779184.0064995</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731779184.7509718</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779184.0064995.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779184.7509718.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>488.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>487.45</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.75</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731779185.2893755</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731779186.3354754</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779185.2893755.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731779186.3354754.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>488.9</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>488.15</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.75</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1875,95 +2047,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731779187.4711075</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731779187.4711075.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731779187.4711075.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>487.55</v>
       </c>
-      <c r="J29" t="n">
-        <v>487.55</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>488.15</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5999999999999659</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731779189.6279252</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731779194.64136</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779189.6279252.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779194.64136.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>219.52</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>214.7</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-4.820000000000022</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-2.2</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731779196.4733577</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731779198.214128</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779196.4733577.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731779198.214128.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>213.56</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>213.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2023,95 +2213,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731779198.97869</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731779198.97869.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731779198.97869.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>214.22</v>
       </c>
-      <c r="J32" t="n">
-        <v>214.22</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>215.28</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-1.060000000000002</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731779202.4677048</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731779204.4182236</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779202.4677048.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779204.4182236.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1017.2</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1015.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731779206.35348</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731779207.6974149</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779206.35348.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779207.6974149.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1011.8</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1013.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731779208.1977513</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731779209.9485645</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779208.1977513.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779209.9485645.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1017.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1014.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731779210.420249</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731779211.183442</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779210.420249.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779211.183442.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1013.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1016.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>3.399999999999977</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731779211.410906</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731779211.5972047</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779211.410906.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779211.5972047.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1013</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1015.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -2327,51 +2553,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731779212.2822256</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731779212.669942</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779212.2822256.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779212.669942.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1013.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1015.6</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>2.399999999999977</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731779212.8258796</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731779216.705169</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779212.8258796.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731779216.705169.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1017.6</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-2.799999999999955</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731779217.9725022</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731779219.0525577</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779217.9725022.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779219.0525577.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>12.157</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>12.168</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.01099999999999923</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731779221.1998947</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731779222.6338856</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779221.1998947.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779222.6338856.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>12.182</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>12.179</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.003000000000000114</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731779225.300536</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731779225.4336934</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779225.300536.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779225.4336934.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>12.171</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>12.182</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731779225.90504</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731779226.6581295</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779225.90504.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779226.6581295.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>12.165</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>12.172</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.00700000000000145</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731779227.196088</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731779229.4208045</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779227.196088.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731779229.4208045.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>12.156</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>12.15</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.006000000000000227</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731779231.091297</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731779232.891184</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779231.091297.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779232.891184.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>126.8</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>126.6</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.2000000000000028</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731779233.3319542</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731779236.2768092</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779233.3319542.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779236.2768092.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>125.88</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>125.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2795,51 +3075,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731779237.6070924</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731779240.4662514</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779237.6070924.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731779240.4662514.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>125.26</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>124.54</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.7199999999999989</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -2847,95 +3133,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731779241.150368</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731779241.150368.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731779241.150368.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>124.94</v>
       </c>
-      <c r="J48" t="n">
-        <v>124.94</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>126.7</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-1.760000000000005</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-1.41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731779245.552106</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731779246.2222672</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779245.552106.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779246.2222672.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>162.52</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>161.7</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.8200000000000216</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731779247.0950208</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731779250.4480207</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779247.0950208.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779250.4480207.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>160.76</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>160.3</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.4599999999999795</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731779251.0159926</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731779251.5073438</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779251.0159926.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779251.5073438.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>160.02</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>160.38</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3599999999999852</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731779251.7957988</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731779255.0344782</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779251.7957988.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731779255.0344782.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>160</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>159.4</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.5999999999999943</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -3099,51 +3415,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731779258.2054222</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731779258.3360698</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779258.2054222.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779258.3360698.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>49.45</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>49.645</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1950000000000003</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -3151,51 +3473,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731779259.2406602</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731779259.7043839</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779259.2406602.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779259.7043839.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>49.8</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>49.6</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.1999999999999957</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -3203,51 +3531,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731779262.0066335</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731779266.964122</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779262.0066335.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779266.964122.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>49.31</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>49.1</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -3255,51 +3589,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731779267.5096452</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731779268.8167627</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779267.5096452.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731779268.8167627.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>49</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>48.92</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3307,95 +3647,107 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731779271.100857</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731779271.100857.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731779271.100857.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>48.735</v>
       </c>
-      <c r="J57" t="n">
-        <v>48.735</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>48.65</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.08500000000000085</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731779272.8972268</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731779273.5206451</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779272.8972268.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779273.5206451.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1381.6</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1375</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>6.599999999999909</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -3403,51 +3755,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731779274.2413764</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731779277.970699</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779274.2413764.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779277.970699.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1371.4</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1363.2</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-8.200000000000045</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -3455,51 +3813,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731779278.432415</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731779279.8772182</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779278.432415.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731779279.8772182.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1363.8</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1362.2</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3507,95 +3871,107 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731779279.9556928</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731779279.9556928.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731779279.9556928.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1357.8</v>
       </c>
-      <c r="J61" t="n">
-        <v>1357.8</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1351.2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-6.599999999999909</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731779287.39684</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731779288.5939662</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779287.39684.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779288.5939662.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>58.07</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>57.9</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3603,51 +3979,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731779291.5018656</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731779292.1742263</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779291.5018656.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779292.1742263.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>57.75</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>57.79</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3655,51 +4037,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731779294.5050135</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731779294.7926428</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779294.5050135.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779294.7926428.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>57.62</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>57.79</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3707,51 +4095,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731779296.3022563</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731779296.9257944</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779296.3022563.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779296.9257944.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>57.6</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>57.69</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.08999999999999631</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3759,51 +4153,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731779297.443079</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731779299.8207982</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779297.443079.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731779299.8207982.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>57.81</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>57.74</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -3811,95 +4211,107 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731779300.1107113</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731779300.1107113.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731779300.1107113.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>57.71</v>
       </c>
-      <c r="J67" t="n">
-        <v>57.71</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>57.64</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731779302.1703234</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731779303.323071</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779302.1703234.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779303.323071.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>98.65000000000001</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>98.11</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.5400000000000063</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -3907,51 +4319,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731779304.1671941</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731779307.0146983</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779304.1671941.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779307.0146983.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>97.87</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>97.8</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.07000000000000739</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -3959,51 +4377,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731779308.301837</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731779309.0659428</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779308.301837.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779309.0659428.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>98.05</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>97.7</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.3499999999999943</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -4011,51 +4435,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731779311.680588</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731779312.0555446</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779311.680588.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731779312.0555446.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>97.53</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>97.81</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4063,95 +4493,107 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731779312.1946366</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731779312.1946366.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731779312.1946366.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>97.93000000000001</v>
       </c>
-      <c r="J72" t="n">
-        <v>97.93000000000001</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>98.84</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.9099999999999966</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731779317.81815</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731779328.0411446</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731779317.81815.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731779328.0411446.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>54.51</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>53.88</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.6299999999999955</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-1.16</v>
       </c>
     </row>
@@ -4159,51 +4601,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731779328.8356535</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731779330.2224088</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779328.8356535.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779330.2224088.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>151.98</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>151.48</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.5</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -4211,51 +4659,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731779330.9904299</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731779334.1208181</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779330.9904299.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779334.1208181.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>151.04</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>150.8</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.2399999999999807</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -4263,51 +4717,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731779334.7577717</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731779336.974659</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779334.7577717.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731779336.974659.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>150.24</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>149.98</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.2600000000000193</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -4315,95 +4775,107 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731779337.8368094</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731779337.8368094.png</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731779337.8368094.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>150.44</v>
       </c>
-      <c r="J77" t="n">
-        <v>150.44</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>150.52</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.08000000000001251</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731779343.856073</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731779345.6218357</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731779343.856073.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731779345.6218357.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.3009</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.303</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.002099999999999991</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -4411,51 +4883,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731779351.761901</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731779352.5168781</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779351.761901.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779352.5168781.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>19.646</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>19.785</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.1389999999999993</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -4463,51 +4941,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731779353.5639296</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731779357.0581064</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779353.5639296.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779357.0581064.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>19.582</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>19.466</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.1159999999999997</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -4515,51 +4999,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731779358.3588734</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731779359.056124</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779358.3588734.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779359.056124.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>19.53</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>19.445</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.08500000000000085</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -4567,51 +5057,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731779360.6809137</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731779362.1026103</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779360.6809137.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779362.1026103.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>19.344</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>19.334</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.01000000000000156</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4619,51 +5115,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731779364.123154</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731779364.5015395</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779364.123154.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731779364.5015395.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>19.317</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>19.237</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.08000000000000185</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -4671,51 +5173,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731779368.1207235</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731779370.7686512</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779368.1207235.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779370.7686512.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>667.95</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>665.55</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-2.400000000000091</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -4723,51 +5231,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731779371.0383236</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731779373.0937617</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779371.0383236.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779373.0937617.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>668.15</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>666.95</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>1.199999999999932</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -4775,51 +5289,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731779373.4542127</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731779374.908013</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779373.4542127.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779374.908013.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>664.5</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>666.15</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>1.649999999999977</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -4827,51 +5347,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731779376.7376401</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731779377.263281</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779376.7376401.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731779377.263281.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>667.8</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>667.65</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4879,51 +5405,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731779380.316678</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731779384.1854048</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779380.316678.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779384.1854048.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>147.37</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>146</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-1.370000000000005</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>-0.9299999999999999</v>
       </c>
     </row>
@@ -4931,51 +5463,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731779384.5115452</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731779385.1059916</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779384.5115452.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731779385.1059916.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>146.25</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>145.71</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -4983,44 +5521,50 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731779387.4596088</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731779387.4596088.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731779387.4596088.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>145.43</v>
       </c>
-      <c r="J90" t="n">
-        <v>145.43</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>143.16</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-2.27000000000001</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-1.56</v>
       </c>
     </row>
   </sheetData>
@@ -5081,19 +5625,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.5</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>5.785714285714286</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="E2" t="n">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -5147,19 +5691,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5399999999999991</v>
+        <v>0.4699999999999989</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08999999999999986</v>
+        <v>0.07833333333333314</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="F5" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -5213,19 +5757,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.340000000000003</v>
+        <v>0.5400000000000063</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2680000000000007</v>
+        <v>0.1080000000000012</v>
       </c>
       <c r="E8" t="n">
-        <v>1.05</v>
+        <v>0.42</v>
       </c>
       <c r="F8" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -5235,19 +5779,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1049999999999969</v>
+        <v>0.01999999999999602</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02099999999999937</v>
+        <v>0.003999999999999204</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
@@ -5257,19 +5801,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.099999999999994</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.03799999999999955</v>
       </c>
       <c r="E10" t="n">
-        <v>1.13</v>
+        <v>0.2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="11">
@@ -5279,19 +5823,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04999999999995453</v>
+        <v>0.5500000000000114</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.009999999999990905</v>
+        <v>0.1100000000000023</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
@@ -5323,19 +5867,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-6.600000000000136</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>-1.650000000000034</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="14">
@@ -5345,19 +5889,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.5999999999999943</v>
+        <v>-2.359999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1499999999999986</v>
+        <v>-0.5899999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4700000000000001</v>
+        <v>-1.88</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.12</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="15">
@@ -5367,19 +5911,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.08000000000001251</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.02000000000000313</v>
       </c>
       <c r="E15" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>-0.04999999999999998</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="16">
@@ -5411,19 +5955,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.8300000000000125</v>
+        <v>-3.100000000000023</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2766666666666708</v>
+        <v>-1.033333333333341</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5599999999999999</v>
+        <v>-2.12</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.19</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="18">
@@ -5455,19 +5999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4.580000000000013</v>
+        <v>-5.640000000000015</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.526666666666671</v>
+        <v>-1.880000000000005</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.09</v>
+        <v>-2.58</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="20">
